--- a/biology/Botanique/Didymoglossum_motleyi/Didymoglossum_motleyi.xlsx
+++ b/biology/Botanique/Didymoglossum_motleyi/Didymoglossum_motleyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymoglossum motleyi est une fougère de la famille des Hyménophyllacées. 
 Nom japonais : マメゴケシダ
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce dispose des caractéristiques suivantes :
 le rhizome est rampant et filiforme de moins de 0,1 mm de diamètre ; il est très abondamment couvert de poils brun-noir ;
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, tant épilithique qu'épiphyte dans les forêts tropicales humides, est présente en Asie tropicale (Chine, Japon, Sri Lanka, Thaïlande), en Australie, Indonésie et en Mélanésie (dont la Nouvelle-Calédonie).
 </t>
@@ -580,16 +596,18 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1861, Roelof Benjamin van den Bosch décrit cette espèce à partir d'un exemplaire collecté à Bornéo par James Motley - collecteur britannique (1822 - 1859) -, à qui l'épithète spécifique est dédié, sous le nom de Microgonium motleyi[1].
-La même année, il décrit un autre exemplaire de la même plante toujours envoyé par James Motley, dans le genre Trichomanes : Trichomanes motleyi (Bosch) Bosch : il ne fait effectivement aucune référence au basionyme Microgonium motleyi qu'il avait décrit en mars, sa publication datant d'août[2],[3].
-En 1875, Karl Anton Eugen Prantl la déplace dans le genre Hemiphlebium : Hemiphlebium motleyi (Bosch) Prantl[4]. 
-En 1906, Carl Frederik Albert Christensen reconfirme le déplacement dans le genre Trichomanes par Roelof Benjamin van den Bosch[5]
-En 1933, Edwin Bingham Copeland confirme le classement dans genre Trichomanes[6].
-En 1954, Hiroshi Itô la redécrit et place dans le genre Microgonium en créant un homonyme : Microgonium motleyi (Bosch) H.Itô[7].
-En 1974, Conrad Vernon Morton la classe dans le genre Trichomanes sous-genre Didymoglossum, section Microgonium[8].
-Enfin, quand en 2006, Atsushi Ebihara et Kunio Iwatsuki la reversent dans le genre Didymoglossum, sous-genre Didymoglossum[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1861, Roelof Benjamin van den Bosch décrit cette espèce à partir d'un exemplaire collecté à Bornéo par James Motley - collecteur britannique (1822 - 1859) -, à qui l'épithète spécifique est dédié, sous le nom de Microgonium motleyi.
+La même année, il décrit un autre exemplaire de la même plante toujours envoyé par James Motley, dans le genre Trichomanes : Trichomanes motleyi (Bosch) Bosch : il ne fait effectivement aucune référence au basionyme Microgonium motleyi qu'il avait décrit en mars, sa publication datant d'août,.
+En 1875, Karl Anton Eugen Prantl la déplace dans le genre Hemiphlebium : Hemiphlebium motleyi (Bosch) Prantl. 
+En 1906, Carl Frederik Albert Christensen reconfirme le déplacement dans le genre Trichomanes par Roelof Benjamin van den Bosch
+En 1933, Edwin Bingham Copeland confirme le classement dans genre Trichomanes.
+En 1954, Hiroshi Itô la redécrit et place dans le genre Microgonium en créant un homonyme : Microgonium motleyi (Bosch) H.Itô.
+En 1974, Conrad Vernon Morton la classe dans le genre Trichomanes sous-genre Didymoglossum, section Microgonium.
+Enfin, quand en 2006, Atsushi Ebihara et Kunio Iwatsuki la reversent dans le genre Didymoglossum, sous-genre Didymoglossum.
 </t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Didymoglossum motleyi est classée dans le sous-genre Didymoglossum.
 Cette espèce compte donc trois synonymes, résultat des remaniements taxinomiques : 
